--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Fgf7</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf7</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.025512</v>
+      </c>
+      <c r="H2">
+        <v>0.07653600000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.001390615539972402</v>
+      </c>
+      <c r="J2">
+        <v>0.001390615539972402</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>18.32032066666666</v>
-      </c>
-      <c r="H2">
-        <v>54.96096199999999</v>
-      </c>
-      <c r="I2">
-        <v>0.9393883922888365</v>
-      </c>
-      <c r="J2">
-        <v>0.9570930138987986</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N2">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O2">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P2">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q2">
-        <v>9.047142275140665</v>
+        <v>0.007292877328000001</v>
       </c>
       <c r="R2">
-        <v>81.42428047626599</v>
+        <v>0.06563589595200001</v>
       </c>
       <c r="S2">
-        <v>0.1053895277698126</v>
+        <v>9.555710080068855E-05</v>
       </c>
       <c r="T2">
-        <v>0.108560932015516</v>
+        <v>9.640941006574329E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H3">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I3">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J3">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P3">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q3">
-        <v>68.94596809088021</v>
+        <v>0.09601084882400002</v>
       </c>
       <c r="R3">
-        <v>620.5137128179219</v>
+        <v>0.8640976394160002</v>
       </c>
       <c r="S3">
-        <v>0.8031467614581602</v>
+        <v>0.001258010788665036</v>
       </c>
       <c r="T3">
-        <v>0.8273152258503209</v>
+        <v>0.001269231454023589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H4">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I4">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J4">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N4">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q4">
-        <v>0.007462477284888888</v>
+        <v>0.002814764472</v>
       </c>
       <c r="R4">
-        <v>0.067162295564</v>
+        <v>0.016888586832</v>
       </c>
       <c r="S4">
-        <v>8.692987610114327E-05</v>
+        <v>3.688129119468727E-05</v>
       </c>
       <c r="T4">
-        <v>8.95457885544924E-05</v>
+        <v>2.480683275060233E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H5">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I5">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J5">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N5">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O5">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P5">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q5">
-        <v>2.641029946825666</v>
+        <v>1.2696472E-05</v>
       </c>
       <c r="R5">
-        <v>15.846179680954</v>
+        <v>0.000114268248</v>
       </c>
       <c r="S5">
-        <v>0.03076517318476267</v>
+        <v>1.663593119904895E-07</v>
       </c>
       <c r="T5">
-        <v>0.02112731024440719</v>
+        <v>1.678431324679794E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H6">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I6">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J6">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N6">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O6">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P6">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q6">
-        <v>0.5344658838349999</v>
+        <v>5.237059079320445</v>
       </c>
       <c r="R6">
-        <v>3.20679530301</v>
+        <v>47.133531713884</v>
       </c>
       <c r="S6">
-        <v>0.00622595570992835</v>
+        <v>0.06862012890583272</v>
       </c>
       <c r="T6">
-        <v>0.004275539001897848</v>
+        <v>0.0692321773161092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H7">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I7">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J7">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,22 +871,22 @@
         <v>11.290081</v>
       </c>
       <c r="O7">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P7">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q7">
-        <v>4.073028438361667</v>
+        <v>68.94596809088023</v>
       </c>
       <c r="R7">
-        <v>24.43817063017</v>
+        <v>620.5137128179221</v>
       </c>
       <c r="S7">
-        <v>0.04744642348462232</v>
+        <v>0.9033851148663251</v>
       </c>
       <c r="T7">
-        <v>0.03258279428258241</v>
+        <v>0.911442742157876</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>18.32032066666667</v>
+      </c>
+      <c r="H8">
+        <v>54.960962</v>
+      </c>
+      <c r="I8">
+        <v>0.9986093844600277</v>
+      </c>
+      <c r="J8">
+        <v>0.9986093844600277</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.082285</v>
-      </c>
-      <c r="H8">
-        <v>2.16457</v>
-      </c>
-      <c r="I8">
-        <v>0.05549498748666318</v>
-      </c>
-      <c r="J8">
-        <v>0.03769393310646423</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N8">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O8">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P8">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q8">
-        <v>0.0004408507566666666</v>
+        <v>2.021299299474</v>
       </c>
       <c r="R8">
-        <v>0.00264510454</v>
+        <v>12.127795796844</v>
       </c>
       <c r="S8">
-        <v>5.135439639291203E-06</v>
+        <v>0.02648467706519993</v>
       </c>
       <c r="T8">
-        <v>3.52665092600449E-06</v>
+        <v>0.01781393582296188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,309 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H9">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I9">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J9">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N9">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O9">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P9">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q9">
-        <v>0.1560205821725</v>
+        <v>0.009117412918444444</v>
       </c>
       <c r="R9">
-        <v>0.6240823286899999</v>
+        <v>0.082056716266</v>
       </c>
       <c r="S9">
-        <v>0.001817472852473227</v>
+        <v>0.0001194636226697951</v>
       </c>
       <c r="T9">
-        <v>0.0008320731710579678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H10">
-        <v>0.299359</v>
-      </c>
-      <c r="I10">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J10">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.493831</v>
-      </c>
-      <c r="N10">
-        <v>1.481493</v>
-      </c>
-      <c r="O10">
-        <v>0.1121895146192186</v>
-      </c>
-      <c r="P10">
-        <v>0.1134277760249069</v>
-      </c>
-      <c r="Q10">
-        <v>0.04927758477633334</v>
-      </c>
-      <c r="R10">
-        <v>0.4434982629870001</v>
-      </c>
-      <c r="S10">
-        <v>0.0005740311394775686</v>
-      </c>
-      <c r="T10">
-        <v>0.0005913050074930071</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H11">
-        <v>0.299359</v>
-      </c>
-      <c r="I11">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J11">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.763360333333333</v>
-      </c>
-      <c r="N11">
-        <v>11.290081</v>
-      </c>
-      <c r="O11">
-        <v>0.85496773012202</v>
-      </c>
-      <c r="P11">
-        <v>0.8644042050627692</v>
-      </c>
-      <c r="Q11">
-        <v>0.3755319286754445</v>
-      </c>
-      <c r="R11">
-        <v>3.379787358079001</v>
-      </c>
-      <c r="S11">
-        <v>0.004374545179237464</v>
-      </c>
-      <c r="T11">
-        <v>0.004506184929865788</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H12">
-        <v>0.299359</v>
-      </c>
-      <c r="I12">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J12">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.0004073333333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.001222</v>
-      </c>
-      <c r="O12">
-        <v>9.253880164447964E-05</v>
-      </c>
-      <c r="P12">
-        <v>9.356017362379453E-05</v>
-      </c>
-      <c r="Q12">
-        <v>4.064629977777779E-05</v>
-      </c>
-      <c r="R12">
-        <v>0.0003658166980000001</v>
-      </c>
-      <c r="S12">
-        <v>4.734859040451686E-07</v>
-      </c>
-      <c r="T12">
-        <v>4.877341432976427E-07</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H13">
-        <v>0.299359</v>
-      </c>
-      <c r="I13">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J13">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.1441585</v>
-      </c>
-      <c r="N13">
-        <v>0.288317</v>
-      </c>
-      <c r="O13">
-        <v>0.03275021645711715</v>
-      </c>
-      <c r="P13">
-        <v>0.02207445873870014</v>
-      </c>
-      <c r="Q13">
-        <v>0.01438504813383334</v>
-      </c>
-      <c r="R13">
-        <v>0.08631028880300001</v>
-      </c>
-      <c r="S13">
-        <v>0.000167570419881249</v>
-      </c>
-      <c r="T13">
-        <v>0.0001150753232349807</v>
+        <v>0.0001205291630805579</v>
       </c>
     </row>
   </sheetData>
